--- a/results/logistic/dilemma/seed-300/0.1/percents/scores-10.xlsx
+++ b/results/logistic/dilemma/seed-300/0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="75">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -43,112 +43,100 @@
     <t>name</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
-    <t>ho</t>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>shocking</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>study</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>drama</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
+    <t>black</t>
+  </si>
+  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>parallel</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>some</t>
-  </si>
-  <si>
-    <t>industries</t>
-  </si>
-  <si>
-    <t>drugs</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>,</t>
+    <t>few</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
   <si>
     <t>.</t>
@@ -157,88 +145,82 @@
     <t>0.95-positive</t>
   </si>
   <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>more</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>own</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>highly</t>
   </si>
   <si>
     <t>most</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>democracy</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>has</t>
   </si>
   <si>
-    <t>documentary</t>
+    <t>your</t>
   </si>
   <si>
     <t>!</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>it</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -614,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS39"/>
+  <dimension ref="A1:BS35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,25 +607,25 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="S1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AB1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AK1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AT1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="BC1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="BL1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -845,38 +827,38 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.06467798651860279</v>
+        <v>0.05327421705428588</v>
       </c>
       <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>57</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3">
+        <v>0.09913977361055876</v>
+      </c>
+      <c r="L3">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>126</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3">
-        <v>0.06177442182911796</v>
-      </c>
-      <c r="L3">
-        <v>9</v>
-      </c>
-      <c r="M3">
-        <v>9</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
@@ -887,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>86</v>
+        <v>1086</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.03576549142648604</v>
+        <v>0.03738017671046669</v>
       </c>
       <c r="U3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -911,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AC3">
-        <v>0.04378540614721525</v>
+        <v>0.06080917248602731</v>
       </c>
       <c r="AD3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -935,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL3">
-        <v>0.03207249457759159</v>
+        <v>0.03484347639705829</v>
       </c>
       <c r="AM3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AN3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AO3">
         <v>1</v>
@@ -959,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AU3">
-        <v>0.04086766538632505</v>
+        <v>0.0541010854948039</v>
       </c>
       <c r="AV3">
+        <v>8</v>
+      </c>
+      <c r="AW3">
+        <v>8</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>52</v>
+      </c>
+      <c r="BC3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AW3">
+      <c r="BD3">
+        <v>0.03380786160251399</v>
+      </c>
+      <c r="BE3">
         <v>9</v>
       </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>1</v>
-      </c>
-      <c r="AZ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>86</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BD3">
-        <v>0.03068601465989129</v>
-      </c>
-      <c r="BE3">
-        <v>10</v>
-      </c>
       <c r="BF3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BG3">
         <v>1</v>
@@ -1007,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="BM3">
-        <v>0.03967273248927835</v>
+        <v>0.05117361224624098</v>
       </c>
       <c r="BN3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BO3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -1031,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1039,13 +1021,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.05802769954164889</v>
+        <v>0.05254875632157843</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1057,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.05499561026365413</v>
+        <v>0.09196915689957937</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1081,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T4">
-        <v>0.03481508413462773</v>
+        <v>0.03658139102854553</v>
       </c>
       <c r="U4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1105,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AC4">
-        <v>0.04251310324326982</v>
+        <v>0.05936010959717168</v>
       </c>
       <c r="AD4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1129,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL4">
-        <v>0.03185013367706236</v>
+        <v>0.03403298800030645</v>
       </c>
       <c r="AM4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO4">
         <v>1</v>
@@ -1153,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AU4">
-        <v>0.04048849443890298</v>
+        <v>0.05256019689262079</v>
       </c>
       <c r="AV4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -1177,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD4">
-        <v>0.03062252503385728</v>
+        <v>0.03309564143054748</v>
       </c>
       <c r="BE4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BF4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -1201,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="BM4">
-        <v>0.03965933521529526</v>
+        <v>0.04959265002550638</v>
       </c>
       <c r="BN4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BO4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -1225,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1233,13 +1215,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.03971875165943477</v>
+        <v>0.04394403328793681</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1251,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0.04737087983688761</v>
+        <v>0.09094663704747791</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1275,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T5">
-        <v>0.03091388365126859</v>
+        <v>0.03508645446307204</v>
       </c>
       <c r="U5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1299,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC5">
-        <v>0.04029635084567586</v>
+        <v>0.0508770556977679</v>
       </c>
       <c r="AD5">
         <v>5</v>
@@ -1323,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL5">
-        <v>0.02978923668788856</v>
+        <v>0.03367277848798798</v>
       </c>
       <c r="AM5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO5">
         <v>1</v>
@@ -1347,13 +1329,13 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AU5">
-        <v>0.03914889275420708</v>
+        <v>0.04806593954051389</v>
       </c>
       <c r="AV5">
         <v>5</v>
@@ -1371,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.02934767014692536</v>
+        <v>0.03299259554063911</v>
       </c>
       <c r="BE5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BF5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG5">
         <v>1</v>
@@ -1395,13 +1377,13 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="BM5">
-        <v>0.03867896223815254</v>
+        <v>0.04683914159353866</v>
       </c>
       <c r="BN5">
         <v>5</v>
@@ -1419,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1427,13 +1409,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.03180604185260884</v>
+        <v>0.03738133209770336</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1445,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.04713590237541464</v>
+        <v>0.0639350759290684</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -1475,38 +1457,38 @@
         <v>12</v>
       </c>
       <c r="T6">
-        <v>0.02881958966912526</v>
+        <v>0.03318010194834617</v>
       </c>
       <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>36</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6">
+        <v>0.04611872536269505</v>
+      </c>
+      <c r="AD6">
         <v>3</v>
       </c>
-      <c r="V6">
+      <c r="AE6">
         <v>3</v>
       </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>63</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC6">
-        <v>0.04003400376410681</v>
-      </c>
-      <c r="AD6">
-        <v>5</v>
-      </c>
-      <c r="AE6">
-        <v>5</v>
-      </c>
       <c r="AF6">
         <v>0</v>
       </c>
@@ -1517,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL6">
-        <v>0.02848371956889945</v>
+        <v>0.03250958258347495</v>
       </c>
       <c r="AM6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO6">
         <v>1</v>
@@ -1541,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AU6">
-        <v>0.03888210643829767</v>
+        <v>0.0460236513928417</v>
       </c>
       <c r="AV6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX6">
         <v>0</v>
@@ -1565,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD6">
-        <v>0.02847604779598513</v>
+        <v>0.03223584123112889</v>
       </c>
       <c r="BE6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BF6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG6">
         <v>1</v>
@@ -1589,19 +1571,19 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="BM6">
-        <v>0.03841035787616376</v>
+        <v>0.04598216020411017</v>
       </c>
       <c r="BN6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BO6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BP6">
         <v>0</v>
@@ -1613,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1621,13 +1603,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.02865623486828078</v>
+        <v>0.03699845004432999</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1639,19 +1621,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.04344690032930468</v>
+        <v>0.04656035699666774</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1663,19 +1645,19 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T7">
-        <v>0.02850325917462458</v>
+        <v>0.03275852061622112</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1687,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AC7">
-        <v>0.03906335978313357</v>
+        <v>0.04504227864525943</v>
       </c>
       <c r="AD7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1711,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AL7">
-        <v>0.02847326821655326</v>
+        <v>0.03228820169644148</v>
       </c>
       <c r="AM7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO7">
         <v>1</v>
@@ -1735,19 +1717,19 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AU7">
-        <v>0.03835236841180215</v>
+        <v>0.04487899128836281</v>
       </c>
       <c r="AV7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -1759,19 +1741,19 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BD7">
-        <v>0.02846565148641533</v>
+        <v>0.03216828160336398</v>
       </c>
       <c r="BE7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG7">
         <v>1</v>
@@ -1783,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="BM7">
-        <v>0.03806118867763651</v>
+        <v>0.04480773112585019</v>
       </c>
       <c r="BN7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BO7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -1807,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1815,13 +1797,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.02864454576800418</v>
+        <v>0.03442240849490107</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1833,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.0432824161062736</v>
+        <v>0.04580077082082095</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1857,19 +1839,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T8">
-        <v>0.02849266763119601</v>
+        <v>0.03258194154961486</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1881,44 +1863,44 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AC8">
-        <v>0.03887971682603523</v>
+        <v>0.04384162653735049</v>
       </c>
       <c r="AD8">
+        <v>3</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>62</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL8">
+        <v>0.03208182481852258</v>
+      </c>
+      <c r="AM8">
         <v>4</v>
       </c>
-      <c r="AE8">
+      <c r="AN8">
         <v>4</v>
       </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>1</v>
-      </c>
-      <c r="AH8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>60</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL8">
-        <v>0.02843812973397128</v>
-      </c>
-      <c r="AM8">
-        <v>3</v>
-      </c>
-      <c r="AN8">
-        <v>3</v>
-      </c>
       <c r="AO8">
         <v>1</v>
       </c>
@@ -1929,19 +1911,19 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AU8">
-        <v>0.03816561799066557</v>
+        <v>0.04374778374294221</v>
       </c>
       <c r="AV8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -1953,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BD8">
-        <v>0.02839287731942674</v>
+        <v>0.03187387996990916</v>
       </c>
       <c r="BE8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG8">
         <v>1</v>
@@ -1977,19 +1959,19 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BM8">
-        <v>0.03787316562424436</v>
+        <v>0.04426631455822633</v>
       </c>
       <c r="BN8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BO8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BP8">
         <v>0</v>
@@ -2001,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2009,13 +1991,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02856272206606804</v>
+        <v>0.0341604365636456</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2027,19 +2009,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.0424478138209977</v>
+        <v>0.04495354008622261</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2051,19 +2033,19 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1091</v>
+        <v>62</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9">
-        <v>0.02841852682719606</v>
+        <v>0.03229349116447666</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -2075,19 +2057,19 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AC9">
-        <v>0.03745000567314839</v>
+        <v>0.04342760856910602</v>
       </c>
       <c r="AD9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2099,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AL9">
-        <v>0.02840010875012996</v>
+        <v>0.03199552533094775</v>
       </c>
       <c r="AM9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO9">
         <v>1</v>
@@ -2123,13 +2105,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AU9">
-        <v>0.03762637525369787</v>
+        <v>0.0436157075770408</v>
       </c>
       <c r="AV9">
         <v>2</v>
@@ -2147,55 +2129,55 @@
         <v>0</v>
       </c>
       <c r="BA9">
+        <v>16</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD9">
+        <v>0.03181764348189252</v>
+      </c>
+      <c r="BE9">
+        <v>2</v>
+      </c>
+      <c r="BF9">
+        <v>2</v>
+      </c>
+      <c r="BG9">
+        <v>1</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
         <v>9</v>
       </c>
-      <c r="BC9" s="1" t="s">
+      <c r="BL9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BM9">
+        <v>0.04413080351073478</v>
+      </c>
+      <c r="BN9">
+        <v>2</v>
+      </c>
+      <c r="BO9">
+        <v>2</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>1</v>
+      </c>
+      <c r="BR9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS9">
         <v>16</v>
-      </c>
-      <c r="BD9">
-        <v>0.02836168839071735</v>
-      </c>
-      <c r="BE9">
-        <v>2</v>
-      </c>
-      <c r="BF9">
-        <v>2</v>
-      </c>
-      <c r="BG9">
-        <v>1</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
-      <c r="BI9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>24</v>
-      </c>
-      <c r="BL9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BM9">
-        <v>0.037698605733068</v>
-      </c>
-      <c r="BN9">
-        <v>2</v>
-      </c>
-      <c r="BO9">
-        <v>2</v>
-      </c>
-      <c r="BP9">
-        <v>0</v>
-      </c>
-      <c r="BQ9">
-        <v>1</v>
-      </c>
-      <c r="BR9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS9">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2203,13 +2185,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02852765476523826</v>
+        <v>0.03407982981556699</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2221,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>0.03636261806392599</v>
+        <v>0.04466139155705076</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2245,19 +2227,19 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T10">
-        <v>0.02838675219691037</v>
+        <v>0.03220473719981876</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -2269,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AC10">
-        <v>0.03735818419459922</v>
+        <v>0.0425596089856619</v>
       </c>
       <c r="AD10">
         <v>2</v>
@@ -2293,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL10">
-        <v>0.0283687546930914</v>
+        <v>0.03190547106464199</v>
       </c>
       <c r="AM10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO10">
         <v>1</v>
@@ -2317,19 +2299,19 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AU10">
-        <v>0.03753300004312958</v>
+        <v>0.04360225501798252</v>
       </c>
       <c r="AV10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -2341,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="BC10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD10">
-        <v>0.02834089577157775</v>
+        <v>0.03180632034214426</v>
       </c>
       <c r="BE10">
         <v>2</v>
@@ -2365,13 +2347,13 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="BM10">
-        <v>0.03760459420637192</v>
+        <v>0.04358875932076864</v>
       </c>
       <c r="BN10">
         <v>2</v>
@@ -2389,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2397,7 +2379,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02850427656468508</v>
+        <v>0.03121158880435312</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2415,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.03628037595241045</v>
+        <v>0.03704037422232766</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -2439,13 +2421,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T11">
-        <v>0.02836556911005324</v>
+        <v>0.03170642501132759</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2463,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AC11">
-        <v>0.03661049501212746</v>
+        <v>0.04243540359518855</v>
       </c>
       <c r="AD11">
         <v>2</v>
@@ -2487,13 +2469,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL11">
-        <v>0.02834785198839903</v>
+        <v>0.0317854012272025</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2511,19 +2493,19 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AU11">
-        <v>0.03710997654299782</v>
+        <v>0.04316200113164449</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -2535,19 +2517,19 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BD11">
-        <v>0.02834089577157775</v>
+        <v>0.03180556192069491</v>
       </c>
       <c r="BE11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BF11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG11">
         <v>1</v>
@@ -2559,19 +2541,19 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="BM11">
-        <v>0.03736286675264019</v>
+        <v>0.04349779100009867</v>
       </c>
       <c r="BN11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP11">
         <v>0</v>
@@ -2583,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2591,7 +2573,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02850427656468508</v>
+        <v>0.0312015129608433</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2609,13 +2591,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.03561069018721249</v>
+        <v>0.0369527296635761</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2633,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T12">
-        <v>0.02836556911005324</v>
+        <v>0.03169533076574536</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2657,19 +2639,19 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AC12">
-        <v>0.0364924790462536</v>
+        <v>0.0419385820332952</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2681,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL12">
-        <v>0.02834785198839903</v>
+        <v>0.03177414444391428</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2705,19 +2687,19 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AU12">
-        <v>0.03708329791140688</v>
+        <v>0.04308740291343516</v>
       </c>
       <c r="AV12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX12">
         <v>0</v>
@@ -2729,13 +2711,13 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BD12">
-        <v>0.02828835833942115</v>
+        <v>0.03178329485192306</v>
       </c>
       <c r="BE12">
         <v>3</v>
@@ -2753,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BM12">
-        <v>0.03733600631644132</v>
+        <v>0.04322802414980016</v>
       </c>
       <c r="BN12">
         <v>1</v>
@@ -2785,7 +2767,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.02837569646164255</v>
+        <v>0.03111083036925487</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2803,19 +2785,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>0.03268536489088968</v>
+        <v>0.03660215142856989</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2827,13 +2809,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T13">
-        <v>0.02824906213233902</v>
+        <v>0.03159548255550521</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -2851,19 +2833,19 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AC13">
-        <v>0.03646624433809669</v>
+        <v>0.04111054609680626</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2875,13 +2857,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL13">
-        <v>0.02823288711259099</v>
+        <v>0.0316728333943203</v>
       </c>
       <c r="AM13">
         <v>2</v>
@@ -2899,19 +2881,19 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AU13">
-        <v>0.03708329791140688</v>
+        <v>0.04220689514075909</v>
       </c>
       <c r="AV13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -2923,19 +2905,19 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BD13">
-        <v>0.02827907379846657</v>
+        <v>0.0317044120844099</v>
       </c>
       <c r="BE13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG13">
         <v>1</v>
@@ -2947,13 +2929,13 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="BM13">
-        <v>0.03733600631644132</v>
+        <v>0.04304734275314478</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2971,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2979,7 +2961,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02828218365942981</v>
+        <v>0.03104029946468609</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2997,19 +2979,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>0.03266186714474238</v>
+        <v>0.03601785437022621</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -3021,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T14">
-        <v>0.0281643297849105</v>
+        <v>0.03151782283642954</v>
       </c>
       <c r="U14">
         <v>2</v>
@@ -3045,19 +3027,19 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AC14">
-        <v>0.03646624433809669</v>
+        <v>0.04024110836349288</v>
       </c>
       <c r="AD14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -3069,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL14">
-        <v>0.0281492762938215</v>
+        <v>0.03159403591130276</v>
       </c>
       <c r="AM14">
         <v>2</v>
@@ -3093,13 +3075,13 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AU14">
-        <v>0.03705661927981595</v>
+        <v>0.04213229692254977</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3117,19 +3099,19 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BD14">
-        <v>0.02824788486975718</v>
+        <v>0.03162515010617206</v>
       </c>
       <c r="BE14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG14">
         <v>1</v>
@@ -3141,19 +3123,19 @@
         <v>0</v>
       </c>
       <c r="BJ14">
+        <v>26</v>
+      </c>
+      <c r="BL14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM14">
+        <v>0.04304608750846021</v>
+      </c>
+      <c r="BN14">
         <v>3</v>
       </c>
-      <c r="BL14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BM14">
-        <v>0.03730914588024244</v>
-      </c>
-      <c r="BN14">
-        <v>1</v>
-      </c>
       <c r="BO14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP14">
         <v>0</v>
@@ -3165,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3173,7 +3155,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.02791982155085544</v>
+        <v>0.03065741741131272</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -3191,19 +3173,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>0.03266186714474238</v>
+        <v>0.03540434245896534</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -3215,13 +3197,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T15">
-        <v>0.02783599193862498</v>
+        <v>0.03109624150430448</v>
       </c>
       <c r="U15">
         <v>2</v>
@@ -3239,13 +3221,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AC15">
-        <v>0.03644000962993979</v>
+        <v>0.03962151956099544</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3263,13 +3245,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL15">
-        <v>0.02814260936701874</v>
+        <v>0.03127134397467531</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -3287,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AU15">
-        <v>0.03702994064822501</v>
+        <v>0.04195619536801456</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3314,16 +3296,16 @@
         <v>8</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BD15">
-        <v>0.02822653636630997</v>
+        <v>0.0314556822206728</v>
       </c>
       <c r="BE15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG15">
         <v>1</v>
@@ -3335,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="BM15">
-        <v>0.03728228544404356</v>
+        <v>0.04295700205481708</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3359,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3367,7 +3349,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02507393117371879</v>
+        <v>0.02799069327029536</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3385,13 +3367,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>0.03263836939859509</v>
+        <v>0.02795861424174533</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3409,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T16">
-        <v>0.027795041573267</v>
+        <v>0.03081981422745809</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -3433,13 +3415,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AC16">
-        <v>0.03641377492178288</v>
+        <v>0.03945591237369766</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3463,7 +3445,7 @@
         <v>23</v>
       </c>
       <c r="AL16">
-        <v>0.02811125530998019</v>
+        <v>0.03126008719138709</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -3481,13 +3463,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AU16">
-        <v>0.03697658338504312</v>
+        <v>0.04186814459074695</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3505,13 +3487,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD16">
-        <v>0.02819590332190819</v>
+        <v>0.03144435908092454</v>
       </c>
       <c r="BE16">
         <v>1</v>
@@ -3529,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BM16">
-        <v>0.03722856457164581</v>
+        <v>0.04273115030899786</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3553,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3561,7 +3543,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.02503886387288901</v>
+        <v>0.02798061742678553</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3579,13 +3561,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>0.03261487165244779</v>
+        <v>0.02784175483007659</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3609,7 +3591,7 @@
         <v>23</v>
       </c>
       <c r="T17">
-        <v>0.0277632669429813</v>
+        <v>0.03080871998187585</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -3627,13 +3609,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AC17">
-        <v>0.03636130550546908</v>
+        <v>0.03937310878004877</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3651,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL17">
-        <v>0.02805899854824926</v>
+        <v>0.03124883040809887</v>
       </c>
       <c r="AM17">
         <v>1</v>
@@ -3675,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AU17">
-        <v>0.03696324406924766</v>
+        <v>0.04164801764757793</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3699,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD17">
-        <v>0.02817511070276859</v>
+        <v>0.03143303594117627</v>
       </c>
       <c r="BE17">
         <v>1</v>
@@ -3723,19 +3705,19 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="BM17">
-        <v>0.03721513435354636</v>
+        <v>0.04268535233749172</v>
       </c>
       <c r="BN17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP17">
         <v>0</v>
@@ -3747,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3755,7 +3737,7 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.02498041837150605</v>
+        <v>0.0279705415832757</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3773,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>0.03256787616015319</v>
+        <v>0.02778332512424222</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3797,13 +3779,13 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T18">
-        <v>0.02771030922583848</v>
+        <v>0.03079762573629361</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -3821,13 +3803,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AC18">
-        <v>0.03634818815139063</v>
+        <v>0.03916609979592653</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3845,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL18">
-        <v>0.02803809584355689</v>
+        <v>0.03123757362481065</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -3869,19 +3851,19 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="AU18">
-        <v>0.03694990475345218</v>
+        <v>0.04128236197944923</v>
       </c>
       <c r="AV18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX18">
         <v>0</v>
@@ -3893,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD18">
-        <v>0.02816471439319879</v>
+        <v>0.03142171280142801</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3917,13 +3899,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="BM18">
-        <v>0.03720170413544693</v>
+        <v>0.04196325437321249</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3941,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3949,7 +3931,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.02495704017095286</v>
+        <v>0.02796046573976588</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3967,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>0.03255612728707954</v>
+        <v>0.0276372508596563</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3991,13 +3973,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T19">
-        <v>0.02768912613898135</v>
+        <v>0.03078653149071137</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -4015,13 +3997,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AC19">
-        <v>0.03633507079731217</v>
+        <v>0.03846226924991094</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4039,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL19">
-        <v>0.0280276444912107</v>
+        <v>0.03122631684152243</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -4063,19 +4045,19 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AU19">
-        <v>0.03677265904278779</v>
+        <v>0.04089958604080327</v>
       </c>
       <c r="AV19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX19">
         <v>0</v>
@@ -4087,13 +4069,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD19">
-        <v>0.02816471439319879</v>
+        <v>0.03141038966167975</v>
       </c>
       <c r="BE19">
         <v>1</v>
@@ -4111,13 +4093,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="BM19">
-        <v>0.03695996020965701</v>
+        <v>0.0417825729765571</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -4135,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4143,7 +4125,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.02494535107067626</v>
+        <v>0.02795038989625605</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4161,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K20">
-        <v>0.0325443784140059</v>
+        <v>0.02714059836006417</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4185,13 +4167,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T20">
-        <v>0.02767853459555278</v>
+        <v>0.03077543724512913</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4209,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AC20">
-        <v>0.03609895842390004</v>
+        <v>0.03829666206261315</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4233,13 +4215,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL20">
-        <v>0.0280276444912107</v>
+        <v>0.03122631684152243</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -4257,13 +4239,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AU20">
-        <v>0.03670979706913372</v>
+        <v>0.04072348448626806</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4281,13 +4263,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD20">
-        <v>0.02815431808362899</v>
+        <v>0.03141038966167975</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -4305,13 +4287,13 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BM20">
-        <v>0.03683907177470389</v>
+        <v>0.04173677500505097</v>
       </c>
       <c r="BN20">
         <v>2</v>
@@ -4329,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4337,7 +4319,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.02494535107067626</v>
+        <v>0.02795038989625605</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4355,13 +4337,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K21">
-        <v>0.03233289869868023</v>
+        <v>0.02702373894839543</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4379,13 +4361,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T21">
-        <v>0.02767853459555278</v>
+        <v>0.03077543724512913</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4403,13 +4385,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AC21">
-        <v>0.03574478986378184</v>
+        <v>0.03730301893882643</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4427,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL21">
-        <v>0.02801719313886452</v>
+        <v>0.03122631684152243</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4451,13 +4433,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AU21">
-        <v>0.03634963554265602</v>
+        <v>0.03966687515905679</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4475,13 +4457,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD21">
-        <v>0.02815431808362899</v>
+        <v>0.03141038966167975</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4499,13 +4481,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="BM21">
-        <v>0.03659734432097216</v>
+        <v>0.04069848459662481</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4523,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4531,7 +4513,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.02493366197039967</v>
+        <v>0.02795038989625605</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4549,13 +4531,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K22">
-        <v>0.03201567912569173</v>
+        <v>0.02632258247838301</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4573,13 +4555,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T22">
-        <v>0.02766794305212422</v>
+        <v>0.03077543724512913</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4597,13 +4579,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AC22">
-        <v>0.03573167250970338</v>
+        <v>0.03717881354835309</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4621,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL22">
-        <v>0.02801719313886452</v>
+        <v>0.03120380327494599</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4645,13 +4627,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AU22">
-        <v>0.03633629622686056</v>
+        <v>0.03953479899315537</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4669,13 +4651,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD22">
-        <v>0.02814392177405919</v>
+        <v>0.03138774338218323</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4693,13 +4675,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="BM22">
-        <v>0.03658391410287272</v>
+        <v>0.04056297354913328</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4717,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4725,7 +4707,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.02493366197039967</v>
+        <v>0.0279302382092364</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4743,13 +4725,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>0.03200393025261808</v>
+        <v>0.02623493791963146</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4767,13 +4749,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T23">
-        <v>0.02766794305212422</v>
+        <v>0.03075324875396465</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4791,13 +4773,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AC23">
-        <v>0.03567920309338957</v>
+        <v>0.03506732191030631</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4815,13 +4797,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL23">
-        <v>0.02800674178651833</v>
+        <v>0.03120380327494599</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4839,13 +4821,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AU23">
-        <v>0.03628293896367868</v>
+        <v>0.0372895041728314</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4863,37 +4845,37 @@
         <v>0</v>
       </c>
       <c r="BA23">
+        <v>114</v>
+      </c>
+      <c r="BC23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD23">
+        <v>0.03138774338218323</v>
+      </c>
+      <c r="BE23">
+        <v>1</v>
+      </c>
+      <c r="BF23">
+        <v>1</v>
+      </c>
+      <c r="BG23">
+        <v>1</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>15</v>
+      </c>
+      <c r="BL23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BC23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD23">
-        <v>0.02814392177405919</v>
-      </c>
-      <c r="BE23">
-        <v>1</v>
-      </c>
-      <c r="BF23">
-        <v>1</v>
-      </c>
-      <c r="BG23">
-        <v>1</v>
-      </c>
-      <c r="BH23">
-        <v>0</v>
-      </c>
-      <c r="BI23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ23">
-        <v>13</v>
-      </c>
-      <c r="BL23" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="BM23">
-        <v>0.03653019323047495</v>
+        <v>0.03825928574177716</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4911,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>64</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4919,7 +4901,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02492197287012308</v>
+        <v>0.0279302382092364</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4937,13 +4919,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K24">
-        <v>0.03195693476032348</v>
+        <v>0.02474498042085506</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4961,13 +4943,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T24">
-        <v>0.02765735150869565</v>
+        <v>0.03075324875396465</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -4985,13 +4967,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AC24">
-        <v>0.03560049896891886</v>
+        <v>0.0328316248817862</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5009,13 +4991,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL24">
-        <v>0.02800674178651833</v>
+        <v>0.03119254649165777</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5033,13 +5015,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AU24">
-        <v>0.03620290306890585</v>
+        <v>0.03491213318660603</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5057,19 +5039,19 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BD24">
-        <v>0.02814336588975159</v>
+        <v>0.03137642024243496</v>
       </c>
       <c r="BE24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG24">
         <v>1</v>
@@ -5081,13 +5063,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="BM24">
-        <v>0.03644961192187832</v>
+        <v>0.0358200868869295</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5105,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>70</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5113,7 +5095,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02492197287012308</v>
+        <v>0.02792016236572658</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5131,13 +5113,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K25">
-        <v>0.03188644152188159</v>
+        <v>0.02316737836332711</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5155,13 +5137,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T25">
-        <v>0.02765735150869565</v>
+        <v>0.03074215450838242</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5179,19 +5161,19 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="AC25">
-        <v>0.03502333538946698</v>
+        <v>0.03124253695389537</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AE25">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -5203,19 +5185,19 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>114</v>
+        <v>1086</v>
       </c>
       <c r="AK25" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AL25">
-        <v>0.02797538772947977</v>
+        <v>0.0311662781463504</v>
       </c>
       <c r="AM25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO25">
         <v>1</v>
@@ -5227,13 +5209,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AU25">
-        <v>0.03561597317390517</v>
+        <v>0.02540264924170451</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5251,13 +5233,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>114</v>
+        <v>384</v>
       </c>
       <c r="BC25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="BD25">
-        <v>0.0281127328453498</v>
+        <v>0.03128583512444887</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -5275,13 +5257,13 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="BM25">
-        <v>0.03585868232550299</v>
+        <v>0.02606329146753886</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5299,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>114</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5307,7 +5289,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.0248869055692933</v>
+        <v>0.02783955561764797</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5325,13 +5307,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K26">
-        <v>0.03136949110664106</v>
+        <v>0.01685697013321532</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5349,13 +5331,13 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>114</v>
+        <v>384</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T26">
-        <v>0.02762557687840996</v>
+        <v>0.03065340054372451</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5373,13 +5355,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AC26">
-        <v>0.03281961990428703</v>
+        <v>0.02388883676770572</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5397,13 +5379,13 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>282</v>
+        <v>384</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AL26">
-        <v>0.02795448502478741</v>
+        <v>0.03110249222535201</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -5421,19 +5403,19 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="AU26">
-        <v>0.0333749681202662</v>
+        <v>0.01662569491983795</v>
       </c>
       <c r="AV26">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AW26">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AX26">
         <v>0</v>
@@ -5445,13 +5427,13 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>282</v>
+        <v>1086</v>
       </c>
       <c r="BC26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="BD26">
-        <v>0.02809194022621021</v>
+        <v>0.0312745119847006</v>
       </c>
       <c r="BE26">
         <v>1</v>
@@ -5469,13 +5451,13 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="BM26">
-        <v>0.03360240568479719</v>
+        <v>0.01129258729096138</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5493,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>282</v>
+        <v>711</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5501,7 +5483,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.02486352736874012</v>
+        <v>0.02782947977413815</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5519,13 +5501,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K27">
-        <v>0.02939568043026814</v>
+        <v>0.007303713229296063</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5543,13 +5525,13 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>282</v>
+        <v>711</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T27">
-        <v>0.02760439379155283</v>
+        <v>0.03064230629814227</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5567,13 +5549,13 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AC27">
-        <v>0.03148164978828492</v>
+        <v>0.01035044920611166</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5591,13 +5573,13 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>384</v>
+        <v>711</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL27">
-        <v>0.02793358232009503</v>
+        <v>0.03109123544206379</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -5615,13 +5597,13 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AU27">
-        <v>0.03201435790912825</v>
+        <v>0.01100634715845083</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5639,13 +5621,13 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>384</v>
+        <v>711</v>
       </c>
       <c r="BC27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BD27">
-        <v>0.02807114760707061</v>
+        <v>0.03125186570520408</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -5663,19 +5645,19 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="BM27">
-        <v>0.03223252343865438</v>
+        <v>0.0102467654144278</v>
       </c>
       <c r="BN27">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BO27">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BP27">
         <v>0</v>
@@ -5687,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>384</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5695,7 +5677,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.02484014916818693</v>
+        <v>0.02780932808711849</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5713,13 +5695,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K28">
-        <v>0.02819729537675601</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5737,13 +5719,13 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>384</v>
+        <v>961</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T28">
-        <v>0.02758321070469569</v>
+        <v>0.0306201178069778</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5761,19 +5743,19 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AC28">
-        <v>0.02850376908748304</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -5785,13 +5767,13 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>1091</v>
+        <v>961</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AL28">
-        <v>0.02789177691071029</v>
+        <v>0.03106872187548735</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -5809,19 +5791,19 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AU28">
-        <v>0.02624210516934091</v>
+        <v>0</v>
       </c>
       <c r="AV28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AW28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX28">
         <v>0</v>
@@ -5833,13 +5815,13 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>1091</v>
+        <v>961</v>
       </c>
       <c r="BC28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BD28">
-        <v>0.02802956236879141</v>
+        <v>0.03125186570520408</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5857,19 +5839,19 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="BM28">
-        <v>0.02531586228509407</v>
+        <v>0</v>
       </c>
       <c r="BN28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BO28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BP28">
         <v>0</v>
@@ -5881,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>1091</v>
+        <v>961</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5889,7 +5871,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02479339276708056</v>
+        <v>0.02780932808711849</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5907,37 +5889,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>24</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K29">
-        <v>0.02141819561326093</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>961</v>
+        <v>27</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T29">
-        <v>0.02754084453098143</v>
+        <v>0.0306201178069778</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -5955,37 +5913,13 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>24</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC29">
-        <v>0.02391293648501808</v>
-      </c>
-      <c r="AD29">
-        <v>1</v>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>1</v>
-      </c>
-      <c r="AH29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>961</v>
+        <v>27</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AL29">
-        <v>0.02786042285367173</v>
+        <v>0.03106872187548735</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -6005,41 +5939,17 @@
       <c r="AR29">
         <v>27</v>
       </c>
-      <c r="AT29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU29">
-        <v>0.024317572695142</v>
-      </c>
-      <c r="AV29">
-        <v>1</v>
-      </c>
-      <c r="AW29">
-        <v>1</v>
-      </c>
-      <c r="AX29">
-        <v>0</v>
-      </c>
-      <c r="AY29">
-        <v>1</v>
-      </c>
-      <c r="AZ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>961</v>
-      </c>
       <c r="BC29" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="BD29">
-        <v>0.02799837344008202</v>
+        <v>0.0311948707957381</v>
       </c>
       <c r="BE29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG29">
         <v>1</v>
@@ -6051,31 +5961,7 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>27</v>
-      </c>
-      <c r="BL29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM29">
-        <v>0.02448328759527788</v>
-      </c>
-      <c r="BN29">
-        <v>1</v>
-      </c>
-      <c r="BO29">
-        <v>1</v>
-      </c>
-      <c r="BP29">
-        <v>0</v>
-      </c>
-      <c r="BQ29">
-        <v>1</v>
-      </c>
-      <c r="BR29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS29">
-        <v>961</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6083,7 +5969,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02475832546625078</v>
+        <v>0.02773879718254971</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6101,37 +5987,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>27</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K30">
-        <v>0.0197851022560238</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>1100</v>
+        <v>34</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T30">
-        <v>0.02750906990069574</v>
+        <v>0.03054245808790213</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6149,43 +6011,19 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>27</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC30">
-        <v>0.02208962426811325</v>
-      </c>
-      <c r="AD30">
-        <v>1</v>
-      </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>1</v>
-      </c>
-      <c r="AH30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>1100</v>
+        <v>34</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AL30">
-        <v>0.02782528437108975</v>
+        <v>0.03098992439246981</v>
       </c>
       <c r="AM30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO30">
         <v>1</v>
@@ -6197,43 +6035,19 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>76</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU30">
-        <v>0.02246340779957165</v>
-      </c>
-      <c r="AV30">
-        <v>1</v>
-      </c>
-      <c r="AW30">
-        <v>1</v>
-      </c>
-      <c r="AX30">
-        <v>0</v>
-      </c>
-      <c r="AY30">
-        <v>1</v>
-      </c>
-      <c r="AZ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA30">
-        <v>1100</v>
+        <v>34</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="BD30">
-        <v>0.02782108029308784</v>
+        <v>0.03117260372696624</v>
       </c>
       <c r="BE30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG30">
         <v>1</v>
@@ -6245,31 +6059,7 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>76</v>
-      </c>
-      <c r="BL30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM30">
-        <v>0.02261648727945581</v>
-      </c>
-      <c r="BN30">
-        <v>1</v>
-      </c>
-      <c r="BO30">
-        <v>1</v>
-      </c>
-      <c r="BP30">
-        <v>0</v>
-      </c>
-      <c r="BQ30">
-        <v>1</v>
-      </c>
-      <c r="BR30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS30">
-        <v>1100</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6277,7 +6067,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.0242556941543573</v>
+        <v>0.02773879718254971</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6295,37 +6085,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>70</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>4</v>
-      </c>
-      <c r="N31">
-        <v>0.75</v>
-      </c>
-      <c r="O31">
-        <v>0.25</v>
-      </c>
-      <c r="P31" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>2784</v>
+        <v>34</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T31">
-        <v>0.02705363353326744</v>
+        <v>0.03054245808790213</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6343,37 +6109,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>70</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>1</v>
-      </c>
-      <c r="AE31">
-        <v>4</v>
-      </c>
-      <c r="AF31">
-        <v>0.75</v>
-      </c>
-      <c r="AG31">
-        <v>0.25</v>
-      </c>
-      <c r="AH31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI31">
-        <v>2784</v>
+        <v>34</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL31">
-        <v>0.02741101470278575</v>
+        <v>0.03098992439246981</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6391,37 +6133,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>70</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
-      <c r="AV31">
-        <v>1</v>
-      </c>
-      <c r="AW31">
-        <v>4</v>
-      </c>
-      <c r="AX31">
-        <v>0.75</v>
-      </c>
-      <c r="AY31">
-        <v>0.25</v>
-      </c>
-      <c r="AZ31" t="b">
-        <v>1</v>
-      </c>
-      <c r="BA31">
-        <v>2784</v>
+        <v>34</v>
       </c>
       <c r="BC31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="BD31">
-        <v>0.02755133212858069</v>
+        <v>0.03117260372696624</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -6439,31 +6157,7 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>70</v>
-      </c>
-      <c r="BL31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BM31">
-        <v>0</v>
-      </c>
-      <c r="BN31">
-        <v>1</v>
-      </c>
-      <c r="BO31">
-        <v>4</v>
-      </c>
-      <c r="BP31">
-        <v>0.75</v>
-      </c>
-      <c r="BQ31">
-        <v>0.25</v>
-      </c>
-      <c r="BR31" t="b">
-        <v>1</v>
-      </c>
-      <c r="BS31">
-        <v>2784</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6471,7 +6165,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02423231595380411</v>
+        <v>0.02763803874745146</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6489,13 +6183,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T32">
-        <v>0.02703245044641031</v>
+        <v>0.03043151563207974</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6513,13 +6207,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL32">
-        <v>0.02739011199809338</v>
+        <v>0.0308773565595876</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6537,13 +6231,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="BC32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BD32">
-        <v>0.02753053950944109</v>
+        <v>0.03105937232948362</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6561,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:62">
@@ -6569,7 +6263,7 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.0239167102463361</v>
+        <v>0.0274566735642746</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6587,13 +6281,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T33">
-        <v>0.02674647877383906</v>
+        <v>0.03023181921159946</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6611,13 +6305,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AL33">
-        <v>0.02710792548474636</v>
+        <v>0.03067473446039964</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6635,13 +6329,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="BC33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="BD33">
-        <v>0.02724983915105654</v>
+        <v>0.0308555558140149</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6659,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:62">
@@ -6667,7 +6361,7 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02384657564467655</v>
+        <v>0.01657476257366302</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -6685,13 +6379,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>105</v>
+        <v>1142</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T34">
-        <v>0.02668292951326767</v>
+        <v>0.01825003398278206</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -6709,13 +6403,13 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>105</v>
+        <v>1142</v>
       </c>
       <c r="AK34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AL34">
-        <v>0.02704521737066925</v>
+        <v>0.01851740850912199</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -6733,13 +6427,13 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>105</v>
+        <v>1142</v>
       </c>
       <c r="BC34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="BD34">
-        <v>0.02718746129363775</v>
+        <v>0.01862656488589156</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -6757,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>105</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="35" spans="1:62">
@@ -6765,7 +6459,7 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.02375306284246381</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -6783,13 +6477,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>113</v>
+        <v>2787</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T35">
-        <v>0.02659819716583916</v>
+        <v>0</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -6807,13 +6501,13 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>113</v>
+        <v>2787</v>
       </c>
       <c r="AK35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AL35">
-        <v>0.02696160655189976</v>
+        <v>0</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -6831,13 +6525,13 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>113</v>
+        <v>2787</v>
       </c>
       <c r="BC35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="BD35">
-        <v>0.02710429081707937</v>
+        <v>0</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -6855,399 +6549,7 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:62">
-      <c r="A36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36">
-        <v>0.02356603723803832</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>129</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T36">
-        <v>0.02642873247098211</v>
-      </c>
-      <c r="U36">
-        <v>1</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
-        <v>1</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>129</v>
-      </c>
-      <c r="AK36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL36">
-        <v>0.02679438491436079</v>
-      </c>
-      <c r="AM36">
-        <v>1</v>
-      </c>
-      <c r="AN36">
-        <v>1</v>
-      </c>
-      <c r="AO36">
-        <v>1</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>129</v>
-      </c>
-      <c r="BC36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD36">
-        <v>0.02693794986396259</v>
-      </c>
-      <c r="BE36">
-        <v>1</v>
-      </c>
-      <c r="BF36">
-        <v>1</v>
-      </c>
-      <c r="BG36">
-        <v>1</v>
-      </c>
-      <c r="BH36">
-        <v>0</v>
-      </c>
-      <c r="BI36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ36">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:62">
-      <c r="A37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37">
-        <v>0.02074896407137947</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>370</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T37">
-        <v>0.02387617050469796</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37">
-        <v>1</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>370</v>
-      </c>
-      <c r="AK37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL37">
-        <v>0.02427560899893004</v>
-      </c>
-      <c r="AM37">
-        <v>1</v>
-      </c>
-      <c r="AN37">
-        <v>1</v>
-      </c>
-      <c r="AO37">
-        <v>1</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
-      </c>
-      <c r="AQ37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>370</v>
-      </c>
-      <c r="BC37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD37">
-        <v>0.0244324392576412</v>
-      </c>
-      <c r="BE37">
-        <v>1</v>
-      </c>
-      <c r="BF37">
-        <v>1</v>
-      </c>
-      <c r="BG37">
-        <v>1</v>
-      </c>
-      <c r="BH37">
-        <v>0</v>
-      </c>
-      <c r="BI37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ37">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="38" spans="1:62">
-      <c r="A38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38">
-        <v>0.01167822225674351</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>1146</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T38">
-        <v>0.01565713280413155</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="W38">
-        <v>1</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>1146</v>
-      </c>
-      <c r="AK38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL38">
-        <v>0.01616535957828994</v>
-      </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
-      <c r="AN38">
-        <v>1</v>
-      </c>
-      <c r="AO38">
-        <v>1</v>
-      </c>
-      <c r="AP38">
-        <v>0</v>
-      </c>
-      <c r="AQ38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>1146</v>
-      </c>
-      <c r="BC38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD38">
-        <v>0.01636490303147773</v>
-      </c>
-      <c r="BE38">
-        <v>1</v>
-      </c>
-      <c r="BF38">
-        <v>1</v>
-      </c>
-      <c r="BG38">
-        <v>1</v>
-      </c>
-      <c r="BH38">
-        <v>0</v>
-      </c>
-      <c r="BI38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ38">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:62">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39">
-        <v>0.75</v>
-      </c>
-      <c r="F39">
-        <v>0.25</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>2784</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>3</v>
-      </c>
-      <c r="V39">
-        <v>4</v>
-      </c>
-      <c r="W39">
-        <v>0.75</v>
-      </c>
-      <c r="X39">
-        <v>0.25</v>
-      </c>
-      <c r="Y39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z39">
-        <v>2784</v>
-      </c>
-      <c r="AK39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL39">
-        <v>0</v>
-      </c>
-      <c r="AM39">
-        <v>3</v>
-      </c>
-      <c r="AN39">
-        <v>4</v>
-      </c>
-      <c r="AO39">
-        <v>0.75</v>
-      </c>
-      <c r="AP39">
-        <v>0.25</v>
-      </c>
-      <c r="AQ39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR39">
-        <v>2784</v>
-      </c>
-      <c r="BC39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD39">
-        <v>0</v>
-      </c>
-      <c r="BE39">
-        <v>3</v>
-      </c>
-      <c r="BF39">
-        <v>4</v>
-      </c>
-      <c r="BG39">
-        <v>0.75</v>
-      </c>
-      <c r="BH39">
-        <v>0.25</v>
-      </c>
-      <c r="BI39" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ39">
-        <v>2784</v>
+        <v>2787</v>
       </c>
     </row>
   </sheetData>
